--- a/biology/Zoologie/Actinotia_polyodon/Actinotia_polyodon.xlsx
+++ b/biology/Zoologie/Actinotia_polyodon/Actinotia_polyodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camomilière, Nuage violet
 Actinotia polyodon, la Camomilière ou le Nuage violet, est un papillon nocturne de la famille des Noctuidae.
@@ -512,12 +524,14 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Chloantha polyodon (Clerck, 1759)[1]
-Cloantha perspicillaris (Linnaeus, 1761)[1]
-Phalaena perspicillaris Linnaeus, 1761[1]
-Phalaena polyodon Clerck, 1759[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Chloantha polyodon (Clerck, 1759)
+Cloantha perspicillaris (Linnaeus, 1761)
+Phalaena perspicillaris Linnaeus, 1761
+Phalaena polyodon Clerck, 1759
 Xylina polyodon (Clerck, 1759)
 Xylophasia polyodon (Clerck, 1759)</t>
         </is>
@@ -547,7 +561,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Zone paléarctique, de l'Europe à la Russie et au Japon. Eurasiatique. En France, elle se rencontre un peu partout, mais souvent localisée, sauf sud méditerranée.
 </t>
@@ -578,7 +594,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bivoltin : deux générations entre mai-juin et août-septembre.
 Plantes hôtes des chenilles : Millepertuis.
@@ -610,7 +628,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Milieux ouverts parfois boisés, clairières mésophiles, pelouses sèches.
 </t>
